--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,157 +55,157 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>ready</t>
@@ -718,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1029,28 +1029,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1052631578947368</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>119</v>
+        <v>464</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1075,32 +1075,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1007751937984496</v>
-      </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>52</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>464</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1126,7 +1102,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1152,7 +1128,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9444444444444444</v>
@@ -1178,7 +1154,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9411764705882353</v>
@@ -1204,7 +1180,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9333333333333333</v>
@@ -1230,7 +1206,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.9145299145299145</v>
@@ -1256,7 +1232,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.9090909090909091</v>
@@ -1282,7 +1258,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.9090909090909091</v>
@@ -1308,7 +1284,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8899082568807339</v>
@@ -1334,7 +1310,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.889763779527559</v>
@@ -1360,7 +1336,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
@@ -1386,7 +1362,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1412,7 +1388,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1438,7 +1414,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.8666666666666667</v>
@@ -1464,7 +1440,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.85</v>
@@ -1490,7 +1466,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.8461538461538461</v>
@@ -1516,7 +1492,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8421052631578947</v>
@@ -1542,7 +1518,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.84</v>
@@ -1568,7 +1544,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.8214285714285714</v>
@@ -1594,7 +1570,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8141025641025641</v>
@@ -1620,7 +1596,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.8125</v>
@@ -1646,7 +1622,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.8095238095238095</v>
@@ -1672,7 +1648,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.7878787878787878</v>
@@ -1698,7 +1674,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>0.7872340425531915</v>
@@ -1724,7 +1700,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>0.7857142857142857</v>
@@ -1750,7 +1726,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>0.7826086956521739</v>
@@ -1776,16 +1752,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.7587719298245614</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L35">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>0.9399999999999999</v>
@@ -1797,38 +1773,38 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.7333333333333333</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L36">
+        <v>173</v>
+      </c>
+      <c r="M36">
+        <v>173</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>66</v>
-      </c>
-      <c r="M36">
-        <v>70</v>
-      </c>
-      <c r="N36">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>0.7073170731707317</v>
@@ -1854,7 +1830,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.6888888888888889</v>
@@ -1880,7 +1856,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6857142857142857</v>
@@ -1906,7 +1882,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6818181818181818</v>
@@ -1932,7 +1908,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>0.656140350877193</v>
@@ -1958,7 +1934,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>0.65</v>
@@ -1984,7 +1960,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>0.6470588235294118</v>
@@ -2010,7 +1986,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
         <v>0.640625</v>
@@ -2036,7 +2012,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45">
         <v>0.6363636363636364</v>
@@ -2062,7 +2038,7 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46">
         <v>0.6363636363636364</v>
@@ -2088,28 +2064,28 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.6349693251533742</v>
+        <v>0.625</v>
       </c>
       <c r="L47">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2117,25 +2093,25 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N48">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2143,25 +2119,25 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.62</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2169,25 +2145,25 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.6129032258064516</v>
+        <v>0.6115485564304461</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="N50">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2195,25 +2171,25 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.6115485564304461</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L51">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M51">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="10:17">
